--- a/Qn2chicken.xlsx
+++ b/Qn2chicken.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Week-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFB4B1B-C783-44E3-BA13-965D9CB8A0C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7ED9DB-D261-4358-A569-616EBDDA69D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6250" xr2:uid="{714BCB40-2547-4E3C-8B70-F060D58249D3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6250" activeTab="1" xr2:uid="{714BCB40-2547-4E3C-8B70-F060D58249D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Formalas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>CHICKEN INN</t>
   </si>
@@ -66,6 +66,18 @@
   <si>
     <t>COST</t>
   </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
+    <t>D10*15%/100</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
 </sst>
 </file>
 
@@ -74,7 +86,7 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -150,9 +162,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -274,6 +286,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-603F-4018-976A-E94B749ED53F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -289,6 +306,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-603F-4018-976A-E94B749ED53F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -304,6 +326,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-603F-4018-976A-E94B749ED53F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -319,6 +346,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-603F-4018-976A-E94B749ED53F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -334,6 +366,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-603F-4018-976A-E94B749ED53F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1436,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB501541-5B8E-4F64-89EE-E6C328F3A532}">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1487,7 +1524,7 @@
         <v>135</v>
       </c>
       <c r="D5" s="5">
-        <f>PRODUCT(B5:C5)</f>
+        <f>PRODUCT(Sheet1!B5:C5)</f>
         <v>405</v>
       </c>
     </row>
@@ -1593,12 +1630,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0C9447-DA10-4495-A53F-59A1F38F3E04}">
-  <dimension ref="A1"/>
+  <dimension ref="D5:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>